--- a/cad-tracker/SampleData1.xlsx
+++ b/cad-tracker/SampleData1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Projects  (Industry)\CAD automation implementation\cad-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F615B5E9-5ABB-4563-A084-10EE2E20C04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A4ADC7-38E1-4DBE-B56C-3DD552B4D26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EF7BFDF4-3805-439A-8D98-AB2AEA4383B5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{EF7BFDF4-3805-439A-8D98-AB2AEA4383B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -119,93 +119,12 @@
   </si>
   <si>
     <t>December 28,2021</t>
-  </si>
-  <si>
-    <t>Date1</t>
-  </si>
-  <si>
-    <t>CstName1</t>
-  </si>
-  <si>
-    <t>CstAddressOne1</t>
-  </si>
-  <si>
-    <t>CstAddressTwo1</t>
-  </si>
-  <si>
-    <t>VehicleMade1</t>
-  </si>
-  <si>
-    <t>VehicleNum1</t>
-  </si>
-  <si>
-    <t>VehicleModel1</t>
-  </si>
-  <si>
-    <t>ChasNo1</t>
-  </si>
-  <si>
-    <t>EngNo1</t>
-  </si>
-  <si>
-    <t>YOM1</t>
-  </si>
-  <si>
-    <t>DmSum1</t>
-  </si>
-  <si>
-    <t>RSUM1</t>
-  </si>
-  <si>
-    <t>SetDate1</t>
-  </si>
-  <si>
-    <t>fvd</t>
-  </si>
-  <si>
-    <t>ereff</t>
-  </si>
-  <si>
-    <t>dgerg</t>
-  </si>
-  <si>
-    <t>dfbfbfb</t>
-  </si>
-  <si>
-    <t>rgfdfbdf</t>
-  </si>
-  <si>
-    <t>gdfbdfbd</t>
-  </si>
-  <si>
-    <t>gsdgsdg</t>
-  </si>
-  <si>
-    <t>sdfsdfsdf</t>
-  </si>
-  <si>
-    <t>dfgdfgdfg</t>
-  </si>
-  <si>
-    <t>dsfdfsd</t>
-  </si>
-  <si>
-    <t>fbdfbdfb</t>
-  </si>
-  <si>
-    <t>abcd</t>
-  </si>
-  <si>
-    <t>ggabdg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -255,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -265,12 +184,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,11 +501,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFCF893-15BB-4534-B97A-6F25E0D70F73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C476CE66-BED4-46C2-8859-4D28511D1C87}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B965A3-11D5-4239-8414-BD4E52939FD5}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -601,7 +532,8 @@
     <col min="6" max="7" width="15.88671875" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" customWidth="1"/>
     <col min="9" max="9" width="14.44140625" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -614,133 +546,7 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="3">
-        <v>2312</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="7">
-        <v>2342</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" s="5">
-        <v>12323</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B965A3-11D5-4239-8414-BD4E52939FD5}">
-  <dimension ref="A1:P2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="7" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -790,7 +596,7 @@
       <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E2" t="s">
@@ -814,7 +620,7 @@
       <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="M2">
@@ -823,7 +629,7 @@
       <c r="N2" s="8">
         <v>7150000</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="8">
         <v>420000</v>
       </c>
       <c r="P2" t="s">

--- a/cad-tracker/SampleData1.xlsx
+++ b/cad-tracker/SampleData1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Projects  (Industry)\CAD automation implementation\cad-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A4ADC7-38E1-4DBE-B56C-3DD552B4D26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6589A59-9B7B-49CB-9DBA-FA959915D38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{EF7BFDF4-3805-439A-8D98-AB2AEA4383B5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EF7BFDF4-3805-439A-8D98-AB2AEA4383B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B965A3-11D5-4239-8414-BD4E52939FD5}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/cad-tracker/SampleData1.xlsx
+++ b/cad-tracker/SampleData1.xlsx
@@ -2,40 +2,31 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Projects  (Industry)\CAD automation implementation\cad-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6589A59-9B7B-49CB-9DBA-FA959915D38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245E1DB9-D039-4D3D-B81B-27E426F6AC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EF7BFDF4-3805-439A-8D98-AB2AEA4383B5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -49,76 +40,223 @@
     <t>SupAddress</t>
   </si>
   <si>
+    <t>RefNo</t>
+  </si>
+  <si>
+    <t>VehicleModel</t>
+  </si>
+  <si>
+    <t>ChasNo</t>
+  </si>
+  <si>
+    <t>EngNo</t>
+  </si>
+  <si>
+    <t>YOM</t>
+  </si>
+  <si>
+    <t>RSUM</t>
+  </si>
+  <si>
+    <t>SetDate</t>
+  </si>
+  <si>
+    <t>Supplier A</t>
+  </si>
+  <si>
+    <t>03,Test Road,Colombo –03</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>DAA - NKE165</t>
+  </si>
+  <si>
+    <t>NZT4125VVGRT</t>
+  </si>
+  <si>
+    <t>54E5235ETDFTDFWTDR23</t>
+  </si>
+  <si>
+    <t>VehicleNum</t>
+  </si>
+  <si>
+    <t>CstAddressOne</t>
+  </si>
+  <si>
+    <t>CstAddressTwo</t>
+  </si>
+  <si>
+    <t>04,Test Road,</t>
+  </si>
+  <si>
+    <t>Colombo –04</t>
+  </si>
+  <si>
+    <t>DmSum</t>
+  </si>
+  <si>
+    <t>AXIO</t>
+  </si>
+  <si>
+    <t>Aaugust 28, 2021</t>
+  </si>
+  <si>
+    <t>December 28,2021</t>
+  </si>
+  <si>
+    <t>Andrew Jhosepaa</t>
+  </si>
+  <si>
     <t>CstName</t>
   </si>
   <si>
-    <t>RefNo</t>
-  </si>
-  <si>
-    <t>VehicleModel</t>
-  </si>
-  <si>
-    <t>ChasNo</t>
-  </si>
-  <si>
-    <t>EngNo</t>
-  </si>
-  <si>
-    <t>YOM</t>
-  </si>
-  <si>
-    <t>RSUM</t>
-  </si>
-  <si>
-    <t>SetDate</t>
-  </si>
-  <si>
-    <t>Supplier A</t>
-  </si>
-  <si>
-    <t>03,Test Road,Colombo –03</t>
-  </si>
-  <si>
-    <t>TOYOTA</t>
-  </si>
-  <si>
-    <t>DAA - NKE165</t>
-  </si>
-  <si>
-    <t>NZT4125VVGRT</t>
-  </si>
-  <si>
-    <t>54E5235ETDFTDFWTDR23</t>
-  </si>
-  <si>
-    <t>VehicleNum</t>
-  </si>
-  <si>
-    <t>Andrew Jhosep</t>
-  </si>
-  <si>
-    <t>CstAddressOne</t>
-  </si>
-  <si>
-    <t>CstAddressTwo</t>
-  </si>
-  <si>
-    <t>04,Test Road,</t>
-  </si>
-  <si>
-    <t>Colombo –04</t>
-  </si>
-  <si>
-    <t>DmSum</t>
-  </si>
-  <si>
-    <t>AXIO</t>
-  </si>
-  <si>
-    <t>Aaugust 28, 2021</t>
-  </si>
-  <si>
-    <t>December 28,2021</t>
+    <t>CstGreeting</t>
+  </si>
+  <si>
+    <t>CstAddressThree</t>
+  </si>
+  <si>
+    <t>CstNIC</t>
+  </si>
+  <si>
+    <t>Dear Sir</t>
+  </si>
+  <si>
+    <t>SupGreeting</t>
+  </si>
+  <si>
+    <t>SupAddressOne</t>
+  </si>
+  <si>
+    <t>SupAddressTwo</t>
+  </si>
+  <si>
+    <t>SupAddressThree</t>
+  </si>
+  <si>
+    <t>DmSumWords</t>
+  </si>
+  <si>
+    <t>PurchaseValue</t>
+  </si>
+  <si>
+    <t>PurchaseValueWords</t>
+  </si>
+  <si>
+    <t>ProcessingFee</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Tenure</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>AB/DMV/MAIN/2022/073</t>
+  </si>
+  <si>
+    <t>Mr. Inthikab  Naufal Ahamed</t>
+  </si>
+  <si>
+    <t>15 February 2022</t>
+  </si>
+  <si>
+    <t>661940786V</t>
+  </si>
+  <si>
+    <t>Mr.G A Sandaruwan</t>
+  </si>
+  <si>
+    <t>MERCEDES BENZ C180</t>
+  </si>
+  <si>
+    <t>WP CAS-6828</t>
+  </si>
+  <si>
+    <t>WDD2050402R235000</t>
+  </si>
+  <si>
+    <t>Ten Million and Cents Zero</t>
+  </si>
+  <si>
+    <t>TwentyOne Million and Cents Zero</t>
+  </si>
+  <si>
+    <t>10 February 2022</t>
+  </si>
+  <si>
+    <t>12.25%</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>No.21/11,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1st Lane, Singhapura, Pelawatte, </t>
+  </si>
+  <si>
+    <t>Battaramulla.</t>
+  </si>
+  <si>
+    <t>No.155/A2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aberathna Mawatha, </t>
+  </si>
+  <si>
+    <t>Boralesgamuwa.</t>
+  </si>
+  <si>
+    <t>8129xxxx</t>
+  </si>
+  <si>
+    <t>InvoiceDate</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>AWPLR</t>
+  </si>
+  <si>
+    <t>GuarantorName</t>
+  </si>
+  <si>
+    <t>GuarantorNIC</t>
+  </si>
+  <si>
+    <t>TotalUnits</t>
+  </si>
+  <si>
+    <t>Units_Amana</t>
+  </si>
+  <si>
+    <t>Units_Customer</t>
+  </si>
+  <si>
+    <t>Shares_Amana</t>
+  </si>
+  <si>
+    <t>Shares_Customer</t>
+  </si>
+  <si>
+    <t>Ratio_Amana</t>
+  </si>
+  <si>
+    <t>Ratio_Customer</t>
+  </si>
+  <si>
+    <t>CustomerContribution</t>
   </si>
 </sst>
 </file>
@@ -501,25 +639,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C476CE66-BED4-46C2-8859-4D28511D1C87}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B965A3-11D5-4239-8414-BD4E52939FD5}">
-  <dimension ref="A1:P2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -538,7 +663,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -550,78 +675,78 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="28.8">
-      <c r="A2" s="3">
-        <v>8129</v>
+      <c r="A2" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="M2">
         <v>2011</v>
@@ -633,11 +758,330 @@
         <v>420000</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278CECC8-1364-45B0-AC62-887AE8A6C17F}">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2">
+        <v>27491030793227</v>
+      </c>
+      <c r="R2">
+        <v>2016</v>
+      </c>
+      <c r="S2">
+        <v>10000000</v>
+      </c>
+      <c r="T2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2">
+        <v>21000000</v>
+      </c>
+      <c r="V2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2">
+        <v>10000</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>60</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG2">
+        <v>126</v>
+      </c>
+      <c r="AH2">
+        <v>60</v>
+      </c>
+      <c r="AI2">
+        <v>66</v>
+      </c>
+      <c r="AJ2">
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="AK2">
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AN2">
+        <v>11000000</v>
+      </c>
+      <c r="AO2">
+        <v>10000000</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cad-tracker/SampleData1.xlsx
+++ b/cad-tracker/SampleData1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Projects  (Industry)\CAD automation implementation\cad-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245E1DB9-D039-4D3D-B81B-27E426F6AC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABF880C-5031-493A-9467-D4F25569F789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -769,10 +769,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278CECC8-1364-45B0-AC62-887AE8A6C17F}">
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -817,12 +817,11 @@
     <col min="38" max="38" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="2" customFormat="1">
+    <row r="1" spans="1:42" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -944,16 +943,13 @@
         <v>76</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:42">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1074,10 +1070,7 @@
       <c r="AN2">
         <v>11000000</v>
       </c>
-      <c r="AO2">
-        <v>10000000</v>
-      </c>
-      <c r="AP2" t="s">
+      <c r="AO2" t="s">
         <v>54</v>
       </c>
     </row>
